--- a/data/pca/factorExposure/factorExposure_2014-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.00405683863850735</v>
+        <v>0.01880197825218116</v>
       </c>
       <c r="C2">
-        <v>-0.121693379648324</v>
+        <v>-0.06768543279619751</v>
       </c>
       <c r="D2">
-        <v>-0.01785195947512747</v>
+        <v>-0.03000003684871221</v>
       </c>
       <c r="E2">
-        <v>0.2222183272082461</v>
+        <v>-0.002196194193072787</v>
       </c>
       <c r="F2">
-        <v>-0.04499093354506428</v>
+        <v>0.03369888972289037</v>
       </c>
       <c r="G2">
-        <v>0.07263728932988864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1656105249702146</v>
+      </c>
+      <c r="H2">
+        <v>-0.02832368901241882</v>
+      </c>
+      <c r="I2">
+        <v>0.008632185292669393</v>
+      </c>
+      <c r="J2">
+        <v>-0.121268274968658</v>
+      </c>
+      <c r="K2">
+        <v>0.04686407021067727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01990298774461767</v>
+        <v>0.01885103169759658</v>
       </c>
       <c r="C4">
-        <v>-0.1695972295771834</v>
+        <v>-0.1430171397509026</v>
       </c>
       <c r="D4">
-        <v>-0.03338134264436807</v>
+        <v>-0.06521888458282986</v>
       </c>
       <c r="E4">
-        <v>0.0522656472267625</v>
+        <v>-0.003466541676143184</v>
       </c>
       <c r="F4">
-        <v>0.05799258675140162</v>
+        <v>0.06013243030699885</v>
       </c>
       <c r="G4">
-        <v>-0.01643201848483448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03718474566417948</v>
+      </c>
+      <c r="H4">
+        <v>0.01937374152971185</v>
+      </c>
+      <c r="I4">
+        <v>0.07089569312388576</v>
+      </c>
+      <c r="J4">
+        <v>-0.07977186349177677</v>
+      </c>
+      <c r="K4">
+        <v>-0.01074753807475394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02702872278163808</v>
+        <v>0.0399231157881998</v>
       </c>
       <c r="C6">
-        <v>-0.07538807483871542</v>
+        <v>-0.0861424259031776</v>
       </c>
       <c r="D6">
-        <v>-0.05218888519248753</v>
+        <v>-0.0278477021491659</v>
       </c>
       <c r="E6">
-        <v>0.05592052054752704</v>
+        <v>-0.0224647131861696</v>
       </c>
       <c r="F6">
-        <v>-0.002646840652250761</v>
+        <v>-0.03250300472266224</v>
       </c>
       <c r="G6">
-        <v>-0.05628133872712559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04079144917926165</v>
+      </c>
+      <c r="H6">
+        <v>0.05762766592505224</v>
+      </c>
+      <c r="I6">
+        <v>0.04891417573954086</v>
+      </c>
+      <c r="J6">
+        <v>0.02791508163280161</v>
+      </c>
+      <c r="K6">
+        <v>0.03139143812990804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.008278408960163221</v>
+        <v>0.01887492137066446</v>
       </c>
       <c r="C7">
-        <v>-0.07684743738384336</v>
+        <v>-0.07029023575361031</v>
       </c>
       <c r="D7">
-        <v>-0.03757118451700585</v>
+        <v>-0.03264765754218506</v>
       </c>
       <c r="E7">
-        <v>0.01227144304911888</v>
+        <v>-0.004208131496940103</v>
       </c>
       <c r="F7">
-        <v>0.0245818776196673</v>
+        <v>0.01443590709738956</v>
       </c>
       <c r="G7">
-        <v>-0.04371865588261471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00794977740228861</v>
+      </c>
+      <c r="H7">
+        <v>0.02795982806942225</v>
+      </c>
+      <c r="I7">
+        <v>0.06565997619503396</v>
+      </c>
+      <c r="J7">
+        <v>-0.08437431491644257</v>
+      </c>
+      <c r="K7">
+        <v>0.02940745919452707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01286226819475252</v>
+        <v>0.001153527021751519</v>
       </c>
       <c r="C8">
-        <v>-0.0726003016812734</v>
+        <v>-0.06102147512273808</v>
       </c>
       <c r="D8">
-        <v>-0.03400302997309787</v>
+        <v>-0.04817682954131158</v>
       </c>
       <c r="E8">
-        <v>0.07016838866758426</v>
+        <v>-0.04854024244051518</v>
       </c>
       <c r="F8">
-        <v>0.01837107968936149</v>
+        <v>0.01457852902897724</v>
       </c>
       <c r="G8">
-        <v>0.01075580080055242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05579284671712574</v>
+      </c>
+      <c r="H8">
+        <v>-0.01026499122103798</v>
+      </c>
+      <c r="I8">
+        <v>0.05726804763550913</v>
+      </c>
+      <c r="J8">
+        <v>-0.006990758137448956</v>
+      </c>
+      <c r="K8">
+        <v>-0.002683425395132749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0121535381201367</v>
+        <v>0.01325246523717524</v>
       </c>
       <c r="C9">
-        <v>-0.1205637663821974</v>
+        <v>-0.1003800500437495</v>
       </c>
       <c r="D9">
-        <v>-0.04760222745767526</v>
+        <v>-0.04023760511289138</v>
       </c>
       <c r="E9">
-        <v>0.01168545378522028</v>
+        <v>0.01574629680032173</v>
       </c>
       <c r="F9">
-        <v>0.002504208127003135</v>
+        <v>0.03097231501615437</v>
       </c>
       <c r="G9">
-        <v>-0.02300852273996514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02619794625109261</v>
+      </c>
+      <c r="H9">
+        <v>0.002692972463167088</v>
+      </c>
+      <c r="I9">
+        <v>0.07231409923031459</v>
+      </c>
+      <c r="J9">
+        <v>-0.08639119905910049</v>
+      </c>
+      <c r="K9">
+        <v>0.01650964831669526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2599158488082788</v>
+        <v>0.2456739423656557</v>
       </c>
       <c r="C10">
-        <v>0.08207739607297498</v>
+        <v>0.09709170085321563</v>
       </c>
       <c r="D10">
-        <v>0.0283572254373723</v>
+        <v>0.006171825216738323</v>
       </c>
       <c r="E10">
-        <v>-0.03076655841655064</v>
+        <v>-0.06323979524437913</v>
       </c>
       <c r="F10">
-        <v>0.02220489536615819</v>
+        <v>-0.02420287911260555</v>
       </c>
       <c r="G10">
-        <v>0.005407666568774424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.00534256420438321</v>
+      </c>
+      <c r="H10">
+        <v>0.03036623108627002</v>
+      </c>
+      <c r="I10">
+        <v>0.04013876040322985</v>
+      </c>
+      <c r="J10">
+        <v>-0.01754448993846203</v>
+      </c>
+      <c r="K10">
+        <v>-0.1306355323551831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006785344910250173</v>
+        <v>0.01698862228185439</v>
       </c>
       <c r="C11">
-        <v>-0.06776343734793328</v>
+        <v>-0.07847065708727795</v>
       </c>
       <c r="D11">
-        <v>-0.02897175168799138</v>
+        <v>-0.0381127906674795</v>
       </c>
       <c r="E11">
-        <v>-0.02246763003317378</v>
+        <v>0.01121498187942558</v>
       </c>
       <c r="F11">
-        <v>0.008732389273951603</v>
+        <v>0.004673227185651069</v>
       </c>
       <c r="G11">
-        <v>-0.03340555053174466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01189507923659365</v>
+      </c>
+      <c r="H11">
+        <v>0.006856572396817373</v>
+      </c>
+      <c r="I11">
+        <v>0.02534993893574456</v>
+      </c>
+      <c r="J11">
+        <v>-0.02427637911086433</v>
+      </c>
+      <c r="K11">
+        <v>0.02662620638560746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.004227102414833601</v>
+        <v>0.01684365594163362</v>
       </c>
       <c r="C12">
-        <v>-0.04609308140486391</v>
+        <v>-0.05268186959535342</v>
       </c>
       <c r="D12">
-        <v>-0.03716258752698842</v>
+        <v>-0.02632769012857804</v>
       </c>
       <c r="E12">
-        <v>-0.01490583049828347</v>
+        <v>0.01197670543643406</v>
       </c>
       <c r="F12">
-        <v>-0.01781772432659627</v>
+        <v>-0.01489728823474801</v>
       </c>
       <c r="G12">
-        <v>-0.04177464904975546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001422497152722505</v>
+      </c>
+      <c r="H12">
+        <v>0.02279523403654474</v>
+      </c>
+      <c r="I12">
+        <v>0.02911696429602723</v>
+      </c>
+      <c r="J12">
+        <v>-0.01538077306267777</v>
+      </c>
+      <c r="K12">
+        <v>0.01075144804087576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01261432975469597</v>
+        <v>0.006245772306233723</v>
       </c>
       <c r="C13">
-        <v>-0.1229775839398022</v>
+        <v>-0.1088976021254766</v>
       </c>
       <c r="D13">
-        <v>-0.07972821290983183</v>
+        <v>-0.04322179854216567</v>
       </c>
       <c r="E13">
-        <v>0.05138567895474917</v>
+        <v>-0.004667243167054394</v>
       </c>
       <c r="F13">
-        <v>-0.06784005221466606</v>
+        <v>-0.03680662618386677</v>
       </c>
       <c r="G13">
-        <v>-0.1183052699933286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.157371457582463</v>
+      </c>
+      <c r="H13">
+        <v>0.1150295924323644</v>
+      </c>
+      <c r="I13">
+        <v>0.02660678016090721</v>
+      </c>
+      <c r="J13">
+        <v>-0.2108994727008428</v>
+      </c>
+      <c r="K13">
+        <v>-0.1305918785512043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01006592442478072</v>
+        <v>0.02054655765815623</v>
       </c>
       <c r="C14">
-        <v>-0.07727642790549641</v>
+        <v>-0.07302173611186293</v>
       </c>
       <c r="D14">
-        <v>-0.04401688812419988</v>
+        <v>-0.04743539519045992</v>
       </c>
       <c r="E14">
-        <v>0.02600657378380371</v>
+        <v>-0.0003246262420050478</v>
       </c>
       <c r="F14">
-        <v>-0.03778364551503458</v>
+        <v>-0.03460125052901033</v>
       </c>
       <c r="G14">
-        <v>-0.06158551393647375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0232853815884282</v>
+      </c>
+      <c r="H14">
+        <v>0.09526781256503745</v>
+      </c>
+      <c r="I14">
+        <v>0.1518874397921385</v>
+      </c>
+      <c r="J14">
+        <v>-0.118923573937095</v>
+      </c>
+      <c r="K14">
+        <v>0.03117079175807879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.005769722459107449</v>
+        <v>0.004459804014407063</v>
       </c>
       <c r="C15">
-        <v>-0.07468582851297179</v>
+        <v>-0.07040307516120005</v>
       </c>
       <c r="D15">
-        <v>-0.02545844860011152</v>
+        <v>-0.03039379239626091</v>
       </c>
       <c r="E15">
-        <v>0.04388199680508027</v>
+        <v>-0.01308541518371248</v>
       </c>
       <c r="F15">
-        <v>0.02535223215769903</v>
+        <v>0.02632567512171427</v>
       </c>
       <c r="G15">
-        <v>-0.02350523168864672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02040476158029004</v>
+      </c>
+      <c r="H15">
+        <v>0.02338897318377343</v>
+      </c>
+      <c r="I15">
+        <v>0.06662552155507298</v>
+      </c>
+      <c r="J15">
+        <v>-0.04016677403912936</v>
+      </c>
+      <c r="K15">
+        <v>0.03447447955592373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.009068084170803617</v>
+        <v>0.01612036463349955</v>
       </c>
       <c r="C16">
-        <v>-0.05594071776335185</v>
+        <v>-0.06065263429232694</v>
       </c>
       <c r="D16">
-        <v>-0.02667527184158248</v>
+        <v>-0.02656842993697119</v>
       </c>
       <c r="E16">
-        <v>-0.01671990023906097</v>
+        <v>0.01289992493542673</v>
       </c>
       <c r="F16">
-        <v>-0.003986253539120996</v>
+        <v>0.002579583827367601</v>
       </c>
       <c r="G16">
-        <v>-0.01887797140611474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005764480838426545</v>
+      </c>
+      <c r="H16">
+        <v>0.00616291940492487</v>
+      </c>
+      <c r="I16">
+        <v>0.01833199504241593</v>
+      </c>
+      <c r="J16">
+        <v>-0.01578515549894826</v>
+      </c>
+      <c r="K16">
+        <v>0.01925818041572561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01057471773842747</v>
+        <v>0.01497269430480402</v>
       </c>
       <c r="C20">
-        <v>-0.09387198679170826</v>
+        <v>-0.08443535640866293</v>
       </c>
       <c r="D20">
-        <v>-0.04009206502839439</v>
+        <v>-0.02599581700371759</v>
       </c>
       <c r="E20">
-        <v>-0.03392164775975719</v>
+        <v>-0.01270615761296634</v>
       </c>
       <c r="F20">
-        <v>-0.005285078124649389</v>
+        <v>0.0132123875757908</v>
       </c>
       <c r="G20">
-        <v>-0.07938744873057586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.02035686615534974</v>
+      </c>
+      <c r="H20">
+        <v>0.03526239248980549</v>
+      </c>
+      <c r="I20">
+        <v>0.0641693022645239</v>
+      </c>
+      <c r="J20">
+        <v>-0.03980493779891886</v>
+      </c>
+      <c r="K20">
+        <v>0.01752834539393031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.00490801364466562</v>
+        <v>0.01470303256569291</v>
       </c>
       <c r="C21">
-        <v>-0.07849866653050212</v>
+        <v>-0.06789429460954727</v>
       </c>
       <c r="D21">
-        <v>0.01924527065730616</v>
+        <v>-0.01903025708826387</v>
       </c>
       <c r="E21">
-        <v>0.04225187962554382</v>
+        <v>-0.0133353211668374</v>
       </c>
       <c r="F21">
-        <v>-0.08790641381552641</v>
+        <v>-0.07328127389046268</v>
       </c>
       <c r="G21">
-        <v>-0.007670932139461887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06381751162380128</v>
+      </c>
+      <c r="H21">
+        <v>0.02364073470359345</v>
+      </c>
+      <c r="I21">
+        <v>0.09470372341232842</v>
+      </c>
+      <c r="J21">
+        <v>-0.1059110458941173</v>
+      </c>
+      <c r="K21">
+        <v>-0.001717682985776189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01182387550769887</v>
+        <v>0.00800928004892181</v>
       </c>
       <c r="C22">
-        <v>-0.2315580998195286</v>
+        <v>-0.1692163964379608</v>
       </c>
       <c r="D22">
-        <v>0.09745385099451132</v>
+        <v>-0.01936436897670481</v>
       </c>
       <c r="E22">
-        <v>0.3316346951535905</v>
+        <v>-0.1200487914536645</v>
       </c>
       <c r="F22">
-        <v>0.3014754419993734</v>
+        <v>0.3234308890970822</v>
       </c>
       <c r="G22">
-        <v>-0.003069233039800212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.3955477704181481</v>
+      </c>
+      <c r="H22">
+        <v>-0.004009986908465053</v>
+      </c>
+      <c r="I22">
+        <v>-0.2790540819581965</v>
+      </c>
+      <c r="J22">
+        <v>0.1820050640491648</v>
+      </c>
+      <c r="K22">
+        <v>0.01783770989453009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01287573623902075</v>
+        <v>0.01315648581615784</v>
       </c>
       <c r="C23">
-        <v>-0.2350772420903643</v>
+        <v>-0.1725283398311597</v>
       </c>
       <c r="D23">
-        <v>0.1022566893751191</v>
+        <v>-0.01888576448124617</v>
       </c>
       <c r="E23">
-        <v>0.3259286750033201</v>
+        <v>-0.1130611086112167</v>
       </c>
       <c r="F23">
-        <v>0.2970873493067264</v>
+        <v>0.3147663039856849</v>
       </c>
       <c r="G23">
-        <v>-0.001665627046789291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.3859666009137518</v>
+      </c>
+      <c r="H23">
+        <v>-0.003097126345479494</v>
+      </c>
+      <c r="I23">
+        <v>-0.2608318836966222</v>
+      </c>
+      <c r="J23">
+        <v>0.1677316337597149</v>
+      </c>
+      <c r="K23">
+        <v>0.02265079160572751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006347488189652421</v>
+        <v>0.01687899422261731</v>
       </c>
       <c r="C24">
-        <v>-0.0598294358917137</v>
+        <v>-0.06323391296752433</v>
       </c>
       <c r="D24">
-        <v>-0.0428229908941198</v>
+        <v>-0.04017206626428532</v>
       </c>
       <c r="E24">
-        <v>-0.01428684373472312</v>
+        <v>0.01113408264712767</v>
       </c>
       <c r="F24">
-        <v>0.003814598531105948</v>
+        <v>0.005752091454097677</v>
       </c>
       <c r="G24">
-        <v>-0.04521544427833416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.005988522040132007</v>
+      </c>
+      <c r="H24">
+        <v>0.01854382604088373</v>
+      </c>
+      <c r="I24">
+        <v>0.03062194966228757</v>
+      </c>
+      <c r="J24">
+        <v>-0.03193021498372253</v>
+      </c>
+      <c r="K24">
+        <v>0.02420515187925847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006965014632840698</v>
+        <v>0.02081575177755663</v>
       </c>
       <c r="C25">
-        <v>-0.06536653378384667</v>
+        <v>-0.06712015747880014</v>
       </c>
       <c r="D25">
-        <v>-0.02030327419878795</v>
+        <v>-0.03256874725465144</v>
       </c>
       <c r="E25">
-        <v>-0.0202899376318976</v>
+        <v>0.01507676385896591</v>
       </c>
       <c r="F25">
-        <v>-0.002616568774933165</v>
+        <v>0.008858733841897075</v>
       </c>
       <c r="G25">
-        <v>-0.04420729984328428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003644574283268275</v>
+      </c>
+      <c r="H25">
+        <v>0.01103350190026217</v>
+      </c>
+      <c r="I25">
+        <v>0.03006869417976706</v>
+      </c>
+      <c r="J25">
+        <v>-0.02970761373322531</v>
+      </c>
+      <c r="K25">
+        <v>0.01213255037390722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01705940416778553</v>
+        <v>0.02193710672158792</v>
       </c>
       <c r="C26">
-        <v>-0.04572524963940645</v>
+        <v>-0.05513672583215042</v>
       </c>
       <c r="D26">
-        <v>-0.07852683399182703</v>
+        <v>-0.0615024260153832</v>
       </c>
       <c r="E26">
-        <v>-0.007950263215265395</v>
+        <v>0.009379730927502213</v>
       </c>
       <c r="F26">
-        <v>-0.05134579347510883</v>
+        <v>0.007815044439435464</v>
       </c>
       <c r="G26">
-        <v>-0.04503916654843224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01024486295625895</v>
+      </c>
+      <c r="H26">
+        <v>-0.008367956405580908</v>
+      </c>
+      <c r="I26">
+        <v>0.06755276254536052</v>
+      </c>
+      <c r="J26">
+        <v>-0.1039227167590693</v>
+      </c>
+      <c r="K26">
+        <v>0.06247614587830379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3589260295608304</v>
+        <v>0.3089578448586729</v>
       </c>
       <c r="C28">
-        <v>0.08816712470052362</v>
+        <v>0.1130353454184985</v>
       </c>
       <c r="D28">
-        <v>0.02525987681222062</v>
+        <v>0.03364503133829864</v>
       </c>
       <c r="E28">
-        <v>-0.04523887860282292</v>
+        <v>-0.02242837257377705</v>
       </c>
       <c r="F28">
-        <v>-0.03180113463451229</v>
+        <v>0.005967173452914329</v>
       </c>
       <c r="G28">
-        <v>0.09022846247107742</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.04417341505477309</v>
+      </c>
+      <c r="H28">
+        <v>-0.1146145253294609</v>
+      </c>
+      <c r="I28">
+        <v>0.03897262454224535</v>
+      </c>
+      <c r="J28">
+        <v>-0.05238186412468712</v>
+      </c>
+      <c r="K28">
+        <v>-0.2115783399200947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007904973241248951</v>
+        <v>0.01746174245472784</v>
       </c>
       <c r="C29">
-        <v>-0.08469423051516031</v>
+        <v>-0.08205682796818267</v>
       </c>
       <c r="D29">
-        <v>-0.04856418383186378</v>
+        <v>-0.04957793336059831</v>
       </c>
       <c r="E29">
-        <v>0.005976262955166725</v>
+        <v>0.02433538375546373</v>
       </c>
       <c r="F29">
-        <v>-0.04048494470261223</v>
+        <v>-0.028817373073487</v>
       </c>
       <c r="G29">
-        <v>-0.09349981180902206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02653643173794271</v>
+      </c>
+      <c r="H29">
+        <v>0.1489836654806089</v>
+      </c>
+      <c r="I29">
+        <v>0.2125612605502194</v>
+      </c>
+      <c r="J29">
+        <v>-0.1652693834839692</v>
+      </c>
+      <c r="K29">
+        <v>0.0238765624160483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02504739255234173</v>
+        <v>0.03431844163094741</v>
       </c>
       <c r="C30">
-        <v>-0.1706484614148363</v>
+        <v>-0.1449758950104617</v>
       </c>
       <c r="D30">
-        <v>-0.06460115931792168</v>
+        <v>-0.05571773459238638</v>
       </c>
       <c r="E30">
-        <v>0.04243995507490215</v>
+        <v>-0.02324126710599881</v>
       </c>
       <c r="F30">
-        <v>0.04802418560252294</v>
+        <v>0.03831525563442961</v>
       </c>
       <c r="G30">
-        <v>-0.03455753130297208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0368710351668667</v>
+      </c>
+      <c r="H30">
+        <v>0.01505113575351627</v>
+      </c>
+      <c r="I30">
+        <v>0.0434022575965293</v>
+      </c>
+      <c r="J30">
+        <v>-0.005623353234879256</v>
+      </c>
+      <c r="K30">
+        <v>0.04484759142041356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002873461064941459</v>
+        <v>0.01440578383169559</v>
       </c>
       <c r="C31">
-        <v>-0.05110876079816631</v>
+        <v>-0.07685125884178495</v>
       </c>
       <c r="D31">
-        <v>-0.03368598807592359</v>
+        <v>-0.04091953080783071</v>
       </c>
       <c r="E31">
-        <v>-0.0177674685467502</v>
+        <v>-0.001290045619613081</v>
       </c>
       <c r="F31">
-        <v>-0.009424055330166346</v>
+        <v>0.004608566474082788</v>
       </c>
       <c r="G31">
-        <v>-0.003483987314908562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.003417940512319559</v>
+      </c>
+      <c r="H31">
+        <v>-0.02349467904032274</v>
+      </c>
+      <c r="I31">
+        <v>0.03297590052609459</v>
+      </c>
+      <c r="J31">
+        <v>-0.02356710146436552</v>
+      </c>
+      <c r="K31">
+        <v>0.009244971871117001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01951670892972355</v>
+        <v>0.02210868898352118</v>
       </c>
       <c r="C32">
-        <v>-0.06985806900116902</v>
+        <v>-0.05254921413826335</v>
       </c>
       <c r="D32">
-        <v>-0.0008266839156528951</v>
+        <v>-0.02464506780171213</v>
       </c>
       <c r="E32">
-        <v>0.1472098463314294</v>
+        <v>0.008414767871594038</v>
       </c>
       <c r="F32">
-        <v>-0.01696574635687477</v>
+        <v>0.0009842168695636101</v>
       </c>
       <c r="G32">
-        <v>-0.08819170086071541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.1167457997973738</v>
+      </c>
+      <c r="H32">
+        <v>0.0761270422531812</v>
+      </c>
+      <c r="I32">
+        <v>0.09957363839483251</v>
+      </c>
+      <c r="J32">
+        <v>-0.1570003795405431</v>
+      </c>
+      <c r="K32">
+        <v>-0.2508269344151965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.008139135080592856</v>
+        <v>0.01735680469095667</v>
       </c>
       <c r="C33">
-        <v>-0.09798717508955819</v>
+        <v>-0.1015642129643742</v>
       </c>
       <c r="D33">
-        <v>-0.06002713413629993</v>
+        <v>-0.05172445419623607</v>
       </c>
       <c r="E33">
-        <v>0.006855762518323972</v>
+        <v>-0.01025125479010145</v>
       </c>
       <c r="F33">
-        <v>0.001959159422373865</v>
+        <v>0.01801140836260967</v>
       </c>
       <c r="G33">
-        <v>-0.03986088306351059</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01239991855157729</v>
+      </c>
+      <c r="H33">
+        <v>0.02545122100009637</v>
+      </c>
+      <c r="I33">
+        <v>0.03845465691687036</v>
+      </c>
+      <c r="J33">
+        <v>-0.04809081389510217</v>
+      </c>
+      <c r="K33">
+        <v>-0.01796996975991525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005003533778989272</v>
+        <v>0.01734052531586778</v>
       </c>
       <c r="C34">
-        <v>-0.05182727057882817</v>
+        <v>-0.04964081769082369</v>
       </c>
       <c r="D34">
-        <v>-0.02252135612041547</v>
+        <v>-0.02125145095928323</v>
       </c>
       <c r="E34">
-        <v>-0.006501587939865023</v>
+        <v>0.01395126302595553</v>
       </c>
       <c r="F34">
-        <v>-0.02184544514518944</v>
+        <v>-0.004445349045053771</v>
       </c>
       <c r="G34">
-        <v>-0.02733891949551954</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.006310362204120773</v>
+      </c>
+      <c r="H34">
+        <v>0.0197195982213295</v>
+      </c>
+      <c r="I34">
+        <v>0.02365002511347467</v>
+      </c>
+      <c r="J34">
+        <v>0.01185220102363121</v>
+      </c>
+      <c r="K34">
+        <v>0.01200120378211965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002368133913879366</v>
+        <v>0.01005238958175277</v>
       </c>
       <c r="C35">
-        <v>-0.03140610838092939</v>
+        <v>-0.04642135407461622</v>
       </c>
       <c r="D35">
-        <v>-0.009484392660841971</v>
+        <v>-0.02215542224992276</v>
       </c>
       <c r="E35">
-        <v>0.003189320695139658</v>
+        <v>-0.003795835173335545</v>
       </c>
       <c r="F35">
-        <v>-0.01162587783268952</v>
+        <v>-0.00609101971363841</v>
       </c>
       <c r="G35">
-        <v>-0.03607377892507419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01217937640269249</v>
+      </c>
+      <c r="H35">
+        <v>0.06201725270767617</v>
+      </c>
+      <c r="I35">
+        <v>0.1267433108543523</v>
+      </c>
+      <c r="J35">
+        <v>-0.08012280669882663</v>
+      </c>
+      <c r="K35">
+        <v>-0.002727266474728999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01303646491517498</v>
+        <v>0.01352202952872521</v>
       </c>
       <c r="C36">
-        <v>-0.05082745070713659</v>
+        <v>-0.04606815378243649</v>
       </c>
       <c r="D36">
-        <v>-0.05664847982647558</v>
+        <v>-0.0436141622320785</v>
       </c>
       <c r="E36">
-        <v>-0.004860597553834512</v>
+        <v>-0.00922606954906283</v>
       </c>
       <c r="F36">
-        <v>-0.0208842270578454</v>
+        <v>0.009463594627043504</v>
       </c>
       <c r="G36">
-        <v>-0.02956139936755376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01038360149787143</v>
+      </c>
+      <c r="H36">
+        <v>-0.005654342521572606</v>
+      </c>
+      <c r="I36">
+        <v>0.05262229130691996</v>
+      </c>
+      <c r="J36">
+        <v>-0.07798626453083543</v>
+      </c>
+      <c r="K36">
+        <v>0.02050126126490726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03417787253332874</v>
+        <v>0.01047535223528006</v>
       </c>
       <c r="C38">
-        <v>-0.04954108160194615</v>
+        <v>-0.05755404670923166</v>
       </c>
       <c r="D38">
-        <v>-0.03870035624574802</v>
+        <v>-0.03683686510293267</v>
       </c>
       <c r="E38">
-        <v>-0.01395244420259309</v>
+        <v>-0.04599246666490015</v>
       </c>
       <c r="F38">
-        <v>-0.008727748618721897</v>
+        <v>0.02247380283611142</v>
       </c>
       <c r="G38">
-        <v>-0.04489795204234751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.006936730238078131</v>
+      </c>
+      <c r="H38">
+        <v>0.01911140993514287</v>
+      </c>
+      <c r="I38">
+        <v>0.0487065819797249</v>
+      </c>
+      <c r="J38">
+        <v>-0.05461761406301345</v>
+      </c>
+      <c r="K38">
+        <v>-0.06936189971861939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.004200315536073468</v>
+        <v>0.02490018494856023</v>
       </c>
       <c r="C39">
-        <v>-0.1302945959252185</v>
+        <v>-0.1311646639160686</v>
       </c>
       <c r="D39">
-        <v>-0.05852503630335685</v>
+        <v>-0.05926675727100539</v>
       </c>
       <c r="E39">
-        <v>-0.01011802551827563</v>
+        <v>-0.008680063227573965</v>
       </c>
       <c r="F39">
-        <v>-0.01708463691653364</v>
+        <v>-0.01568759477216165</v>
       </c>
       <c r="G39">
-        <v>-0.06437967493812388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.006806124102565612</v>
+      </c>
+      <c r="H39">
+        <v>0.04291062424098172</v>
+      </c>
+      <c r="I39">
+        <v>0.04548220447795012</v>
+      </c>
+      <c r="J39">
+        <v>-0.00399403915431857</v>
+      </c>
+      <c r="K39">
+        <v>0.09201755171828199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.00422558120801606</v>
+        <v>0.01467942734913304</v>
       </c>
       <c r="C40">
-        <v>-0.04386961699375463</v>
+        <v>-0.05896980788575681</v>
       </c>
       <c r="D40">
-        <v>-0.033551598916976</v>
+        <v>-0.04475324605128021</v>
       </c>
       <c r="E40">
-        <v>0.1058471716581033</v>
+        <v>-0.001756576216694627</v>
       </c>
       <c r="F40">
-        <v>0.07603688488319313</v>
+        <v>-0.009221914100530696</v>
       </c>
       <c r="G40">
-        <v>-0.1047479948593972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03233053210774305</v>
+      </c>
+      <c r="H40">
+        <v>0.1484958061237744</v>
+      </c>
+      <c r="I40">
+        <v>0.01608310311668397</v>
+      </c>
+      <c r="J40">
+        <v>-0.02683445629842376</v>
+      </c>
+      <c r="K40">
+        <v>0.04150269010737041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01301524728604451</v>
+        <v>0.02220775789952667</v>
       </c>
       <c r="C41">
-        <v>-0.02752632372073216</v>
+        <v>-0.04734541482628107</v>
       </c>
       <c r="D41">
-        <v>-0.007335615616855291</v>
+        <v>-0.01463644206989153</v>
       </c>
       <c r="E41">
-        <v>-0.007807103370721134</v>
+        <v>0.006963319345075341</v>
       </c>
       <c r="F41">
-        <v>-0.01051563097874723</v>
+        <v>-0.006127516696502666</v>
       </c>
       <c r="G41">
-        <v>0.04547126891747858</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01283724564115786</v>
+      </c>
+      <c r="H41">
+        <v>-0.005346757203405258</v>
+      </c>
+      <c r="I41">
+        <v>0.01382478721380498</v>
+      </c>
+      <c r="J41">
+        <v>-0.0246354408619084</v>
+      </c>
+      <c r="K41">
+        <v>-0.02810285220482209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.007413824590786531</v>
+        <v>0.01926855035206084</v>
       </c>
       <c r="C43">
-        <v>-0.0284164905491921</v>
+        <v>-0.04484516745031101</v>
       </c>
       <c r="D43">
-        <v>-0.02572162452680386</v>
+        <v>-0.02916451859235861</v>
       </c>
       <c r="E43">
-        <v>-0.005649269980557825</v>
+        <v>-0.002318277323136348</v>
       </c>
       <c r="F43">
-        <v>-0.001717535893153639</v>
+        <v>0.00455528652235593</v>
       </c>
       <c r="G43">
-        <v>0.009070230388047638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0118603932882861</v>
+      </c>
+      <c r="H43">
+        <v>0.003789763041067507</v>
+      </c>
+      <c r="I43">
+        <v>0.02394781675056852</v>
+      </c>
+      <c r="J43">
+        <v>-0.03039661351149043</v>
+      </c>
+      <c r="K43">
+        <v>0.002321178175909049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02205046163399227</v>
+        <v>0.01756741631749216</v>
       </c>
       <c r="C44">
-        <v>-0.1016606984987271</v>
+        <v>-0.09787458888534926</v>
       </c>
       <c r="D44">
-        <v>-0.0316733169709088</v>
+        <v>-0.05753855567445952</v>
       </c>
       <c r="E44">
-        <v>0.02079932583076417</v>
+        <v>-0.04184487773365377</v>
       </c>
       <c r="F44">
-        <v>0.02430580804394113</v>
+        <v>0.04828661097786504</v>
       </c>
       <c r="G44">
-        <v>-0.07356180417913807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03436580399839725</v>
+      </c>
+      <c r="H44">
+        <v>0.04872724176634831</v>
+      </c>
+      <c r="I44">
+        <v>0.01972058011587338</v>
+      </c>
+      <c r="J44">
+        <v>-0.04648897298639499</v>
+      </c>
+      <c r="K44">
+        <v>0.05452410508237247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004109366689404944</v>
+        <v>0.004593406109062829</v>
       </c>
       <c r="C46">
-        <v>-0.06305330997538587</v>
+        <v>-0.06491210178235489</v>
       </c>
       <c r="D46">
-        <v>-0.04721046782572905</v>
+        <v>-0.02828917262195095</v>
       </c>
       <c r="E46">
-        <v>0.01593748099252551</v>
+        <v>-0.004796334736474558</v>
       </c>
       <c r="F46">
-        <v>-0.02231121736552375</v>
+        <v>-0.01212090556917015</v>
       </c>
       <c r="G46">
-        <v>-0.02930199159919266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.001313173915638498</v>
+      </c>
+      <c r="H46">
+        <v>0.03467141759523366</v>
+      </c>
+      <c r="I46">
+        <v>0.0541774654775941</v>
+      </c>
+      <c r="J46">
+        <v>-0.08102016391307612</v>
+      </c>
+      <c r="K46">
+        <v>0.02050076585874273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.006142981904721687</v>
+        <v>0.02177507774141061</v>
       </c>
       <c r="C47">
-        <v>-0.05791342310633261</v>
+        <v>-0.07328644779709309</v>
       </c>
       <c r="D47">
-        <v>-0.05529645308319579</v>
+        <v>-0.04349161659889838</v>
       </c>
       <c r="E47">
-        <v>-0.01980102128326413</v>
+        <v>0.01453943967188052</v>
       </c>
       <c r="F47">
-        <v>-0.05125798810756282</v>
+        <v>-0.005400714342082728</v>
       </c>
       <c r="G47">
-        <v>-0.008719698055868639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007728290281719247</v>
+      </c>
+      <c r="H47">
+        <v>0.004321434628053025</v>
+      </c>
+      <c r="I47">
+        <v>0.0469419081768715</v>
+      </c>
+      <c r="J47">
+        <v>-0.05498629261320685</v>
+      </c>
+      <c r="K47">
+        <v>-0.01710745833062102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01495672398082723</v>
+        <v>0.01585877112556443</v>
       </c>
       <c r="C48">
-        <v>-0.0497953184821143</v>
+        <v>-0.04560634371871608</v>
       </c>
       <c r="D48">
-        <v>-0.06548976353051421</v>
+        <v>-0.05220256968484885</v>
       </c>
       <c r="E48">
-        <v>-0.01068480019082066</v>
+        <v>0.009469408321555435</v>
       </c>
       <c r="F48">
-        <v>-0.01747404696478048</v>
+        <v>0.02456883163879098</v>
       </c>
       <c r="G48">
-        <v>-0.03055355672679314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01051207371165265</v>
+      </c>
+      <c r="H48">
+        <v>-0.008883699842103047</v>
+      </c>
+      <c r="I48">
+        <v>0.07463743890706399</v>
+      </c>
+      <c r="J48">
+        <v>-0.1054797346371191</v>
+      </c>
+      <c r="K48">
+        <v>0.04274424212713253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02238537347140721</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04998044508340079</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01088128365975704</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03309501026733312</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02643021394309472</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.07026024821330167</v>
+      </c>
+      <c r="H49">
+        <v>0.06407248628682669</v>
+      </c>
+      <c r="I49">
+        <v>0.01618469976871765</v>
+      </c>
+      <c r="J49">
+        <v>0.1170871203284098</v>
+      </c>
+      <c r="K49">
+        <v>0.04116772948260914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.00155310173545839</v>
+        <v>0.01583423232631535</v>
       </c>
       <c r="C50">
-        <v>-0.06174147975369765</v>
+        <v>-0.07528373731911835</v>
       </c>
       <c r="D50">
-        <v>-0.02797638709735169</v>
+        <v>-0.03233108955485781</v>
       </c>
       <c r="E50">
-        <v>0.001760873436217144</v>
+        <v>0.003119753080230114</v>
       </c>
       <c r="F50">
-        <v>0.005413747547347184</v>
+        <v>0.01995087748880768</v>
       </c>
       <c r="G50">
-        <v>-0.016910658943558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008460450052243496</v>
+      </c>
+      <c r="H50">
+        <v>-0.003319153462759641</v>
+      </c>
+      <c r="I50">
+        <v>0.06045985486895077</v>
+      </c>
+      <c r="J50">
+        <v>-0.03369775117947172</v>
+      </c>
+      <c r="K50">
+        <v>-0.05083753214020562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.006834002987960506</v>
+        <v>-0.004004415339037911</v>
       </c>
       <c r="C51">
-        <v>-0.07313480437943801</v>
+        <v>-0.03550030993986287</v>
       </c>
       <c r="D51">
-        <v>-0.03585721559600891</v>
+        <v>-0.02651236209972025</v>
       </c>
       <c r="E51">
-        <v>0.0290287542109006</v>
+        <v>-0.02589193158587565</v>
       </c>
       <c r="F51">
-        <v>0.009223743423563076</v>
+        <v>0.0006188489217818737</v>
       </c>
       <c r="G51">
-        <v>0.0006823505911088561</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02383044257396613</v>
+      </c>
+      <c r="H51">
+        <v>0.02099064503182417</v>
+      </c>
+      <c r="I51">
+        <v>0.05160101556277168</v>
+      </c>
+      <c r="J51">
+        <v>-0.09551139603422745</v>
+      </c>
+      <c r="K51">
+        <v>0.03382600448772278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03682601940605574</v>
+        <v>0.06067424309628493</v>
       </c>
       <c r="C53">
-        <v>-0.1092407655542424</v>
+        <v>-0.1314899997729868</v>
       </c>
       <c r="D53">
-        <v>-0.06648112016406674</v>
+        <v>-0.05686725609617617</v>
       </c>
       <c r="E53">
-        <v>-0.1163741440632617</v>
+        <v>0.03519948690069847</v>
       </c>
       <c r="F53">
-        <v>-0.03974964073002625</v>
+        <v>-0.04103369081433881</v>
       </c>
       <c r="G53">
-        <v>0.1079114629522796</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04059549467273842</v>
+      </c>
+      <c r="H53">
+        <v>-0.09152410822571057</v>
+      </c>
+      <c r="I53">
+        <v>-0.01602391867546006</v>
+      </c>
+      <c r="J53">
+        <v>0.007926802425856423</v>
+      </c>
+      <c r="K53">
+        <v>-0.02243756616568451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005589716228704675</v>
+        <v>0.01605759298623687</v>
       </c>
       <c r="C54">
-        <v>-0.07141185850837717</v>
+        <v>-0.07152262078406638</v>
       </c>
       <c r="D54">
-        <v>-0.01462617266445393</v>
+        <v>-0.01193357688248198</v>
       </c>
       <c r="E54">
-        <v>-0.02569822381727327</v>
+        <v>0.01260601879073681</v>
       </c>
       <c r="F54">
-        <v>-0.005147910220375791</v>
+        <v>0.002303661192257541</v>
       </c>
       <c r="G54">
-        <v>-0.02070875055788068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.003979587720332519</v>
+      </c>
+      <c r="H54">
+        <v>0.01472574244497823</v>
+      </c>
+      <c r="I54">
+        <v>0.03745554459771837</v>
+      </c>
+      <c r="J54">
+        <v>-0.0496124250406423</v>
+      </c>
+      <c r="K54">
+        <v>0.02845083196245691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01401472942928118</v>
+        <v>0.03068705395919983</v>
       </c>
       <c r="C55">
-        <v>-0.07316966355500612</v>
+        <v>-0.08306497620427296</v>
       </c>
       <c r="D55">
-        <v>-0.06192767581072026</v>
+        <v>-0.05307785037965393</v>
       </c>
       <c r="E55">
-        <v>-0.05705422246633706</v>
+        <v>0.0333465817013532</v>
       </c>
       <c r="F55">
-        <v>-0.03143470849156341</v>
+        <v>-0.01721509873617263</v>
       </c>
       <c r="G55">
-        <v>0.0340179818022472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02985794630460321</v>
+      </c>
+      <c r="H55">
+        <v>-0.03899525412091825</v>
+      </c>
+      <c r="I55">
+        <v>-0.008341578816026133</v>
+      </c>
+      <c r="J55">
+        <v>-0.005948680053040624</v>
+      </c>
+      <c r="K55">
+        <v>0.008770425921657467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01573640006042276</v>
+        <v>0.04896432222255642</v>
       </c>
       <c r="C56">
-        <v>-0.1466673522776043</v>
+        <v>-0.1542020211391034</v>
       </c>
       <c r="D56">
-        <v>-0.0652855782351154</v>
+        <v>-0.08038911922417352</v>
       </c>
       <c r="E56">
-        <v>-0.08842428531505063</v>
+        <v>0.0762067911259012</v>
       </c>
       <c r="F56">
-        <v>-0.05636017283763871</v>
+        <v>-0.07717660876537806</v>
       </c>
       <c r="G56">
-        <v>0.1402244936938242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0461963389997963</v>
+      </c>
+      <c r="H56">
+        <v>-0.1610809133111434</v>
+      </c>
+      <c r="I56">
+        <v>-0.01045863231685954</v>
+      </c>
+      <c r="J56">
+        <v>0.03529973954908937</v>
+      </c>
+      <c r="K56">
+        <v>-0.004668412773267394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02921269435814661</v>
+        <v>0.01872500253136145</v>
       </c>
       <c r="C58">
-        <v>-0.2854183412827794</v>
+        <v>-0.1755028925535404</v>
       </c>
       <c r="D58">
-        <v>0.03421234828805188</v>
+        <v>-0.04353136587294974</v>
       </c>
       <c r="E58">
-        <v>0.1736804143366196</v>
+        <v>-0.1961474589807538</v>
       </c>
       <c r="F58">
-        <v>0.2163256781612438</v>
+        <v>0.1620910288490592</v>
       </c>
       <c r="G58">
-        <v>-0.007613426991774942</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2544235660910931</v>
+      </c>
+      <c r="H58">
+        <v>-0.06863244345189842</v>
+      </c>
+      <c r="I58">
+        <v>-0.01305228384267105</v>
+      </c>
+      <c r="J58">
+        <v>-0.1603574543518669</v>
+      </c>
+      <c r="K58">
+        <v>-0.07220442949241479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2912832013042612</v>
+        <v>0.2887238186804855</v>
       </c>
       <c r="C59">
-        <v>0.0061374186512182</v>
+        <v>0.05219410554488576</v>
       </c>
       <c r="D59">
-        <v>0.009433344940098265</v>
+        <v>0.00588810492531858</v>
       </c>
       <c r="E59">
-        <v>0.06282983051152478</v>
+        <v>-0.01566602811916626</v>
       </c>
       <c r="F59">
-        <v>-0.04593600672487505</v>
+        <v>0.007664676426672402</v>
       </c>
       <c r="G59">
-        <v>0.002134345974671335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.05406483419248763</v>
+      </c>
+      <c r="H59">
+        <v>-0.005694200615826386</v>
+      </c>
+      <c r="I59">
+        <v>-0.01874846475218087</v>
+      </c>
+      <c r="J59">
+        <v>0.002433281630619379</v>
+      </c>
+      <c r="K59">
+        <v>-0.03049241308789749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1113795102069692</v>
+        <v>0.1528693724345555</v>
       </c>
       <c r="C60">
-        <v>-0.1476061080971339</v>
+        <v>-0.1602230372068501</v>
       </c>
       <c r="D60">
-        <v>-0.08935260084486514</v>
+        <v>-0.04101805698633351</v>
       </c>
       <c r="E60">
-        <v>-0.1236237279036239</v>
+        <v>0.1534042861491716</v>
       </c>
       <c r="F60">
-        <v>-0.194598579093335</v>
+        <v>-0.06287093346860284</v>
       </c>
       <c r="G60">
-        <v>-0.2447434488447008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08546025078615446</v>
+      </c>
+      <c r="H60">
+        <v>0.2305357031768277</v>
+      </c>
+      <c r="I60">
+        <v>-0.2111799096786839</v>
+      </c>
+      <c r="J60">
+        <v>0.1112000468753993</v>
+      </c>
+      <c r="K60">
+        <v>0.01955036404673528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006925678846851971</v>
+        <v>0.02503635324158464</v>
       </c>
       <c r="C61">
-        <v>-0.08630966628429998</v>
+        <v>-0.0982901029187627</v>
       </c>
       <c r="D61">
-        <v>-0.06877479771070701</v>
+        <v>-0.05365215202206118</v>
       </c>
       <c r="E61">
-        <v>-0.02973173071014665</v>
+        <v>0.01440786718638929</v>
       </c>
       <c r="F61">
-        <v>-0.03234624950524739</v>
+        <v>-0.01259548506447892</v>
       </c>
       <c r="G61">
-        <v>-0.07077359412506534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0199940042467938</v>
+      </c>
+      <c r="H61">
+        <v>0.0284608577589833</v>
+      </c>
+      <c r="I61">
+        <v>0.05961568892348146</v>
+      </c>
+      <c r="J61">
+        <v>-0.009916797700254339</v>
+      </c>
+      <c r="K61">
+        <v>0.03548701621205563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00255009790469941</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0147701474904141</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003525990101810976</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02038623061942186</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02841899219008473</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01085892719300364</v>
+      </c>
+      <c r="H62">
+        <v>0.01888751595215767</v>
+      </c>
+      <c r="I62">
+        <v>0.01988613514598786</v>
+      </c>
+      <c r="J62">
+        <v>-0.002609501705481967</v>
+      </c>
+      <c r="K62">
+        <v>-0.00769384514957058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0006101778319952695</v>
+        <v>0.02656075933524445</v>
       </c>
       <c r="C63">
-        <v>-0.05992202654165209</v>
+        <v>-0.06419391736842178</v>
       </c>
       <c r="D63">
-        <v>-0.03553876499087039</v>
+        <v>-0.05836896142501032</v>
       </c>
       <c r="E63">
-        <v>-0.01760418713259208</v>
+        <v>0.01231708980602492</v>
       </c>
       <c r="F63">
-        <v>0.001100676519104675</v>
+        <v>-0.005031486229340065</v>
       </c>
       <c r="G63">
-        <v>0.002444417289483085</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004625926360198015</v>
+      </c>
+      <c r="H63">
+        <v>-0.0004603448526868787</v>
+      </c>
+      <c r="I63">
+        <v>0.06011015857750755</v>
+      </c>
+      <c r="J63">
+        <v>-0.03495699848563433</v>
+      </c>
+      <c r="K63">
+        <v>0.01802144159607327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.0009831626915436746</v>
+        <v>0.01795785067117123</v>
       </c>
       <c r="C64">
-        <v>-0.08915115454865249</v>
+        <v>-0.09124724433058956</v>
       </c>
       <c r="D64">
-        <v>-0.07105980483530906</v>
+        <v>-0.03419047505761879</v>
       </c>
       <c r="E64">
-        <v>-0.009229371183346251</v>
+        <v>0.01748585705953556</v>
       </c>
       <c r="F64">
-        <v>0.008531655798580545</v>
+        <v>0.04935454009978031</v>
       </c>
       <c r="G64">
-        <v>-0.04395833912535788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01306772787153757</v>
+      </c>
+      <c r="H64">
+        <v>0.05795579518810091</v>
+      </c>
+      <c r="I64">
+        <v>0.03784469867385486</v>
+      </c>
+      <c r="J64">
+        <v>-0.03267268812889421</v>
+      </c>
+      <c r="K64">
+        <v>0.08491570145613715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01256706017355843</v>
+        <v>0.03251615348005303</v>
       </c>
       <c r="C65">
-        <v>-0.08752276441587997</v>
+        <v>-0.09383651839272654</v>
       </c>
       <c r="D65">
-        <v>-0.03254207334307112</v>
+        <v>-0.02224643456903494</v>
       </c>
       <c r="E65">
-        <v>0.01798537428954021</v>
+        <v>-0.008353993388290197</v>
       </c>
       <c r="F65">
-        <v>-0.02232750676464694</v>
+        <v>0.00309666894149488</v>
       </c>
       <c r="G65">
-        <v>-0.07705323076576577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01176728038349223</v>
+      </c>
+      <c r="H65">
+        <v>0.08510769513225837</v>
+      </c>
+      <c r="I65">
+        <v>-0.01432379520166139</v>
+      </c>
+      <c r="J65">
+        <v>-0.00239912757977866</v>
+      </c>
+      <c r="K65">
+        <v>0.06182759694205085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003636744502868874</v>
+        <v>0.02223318524220599</v>
       </c>
       <c r="C66">
-        <v>-0.173971800270722</v>
+        <v>-0.1712909568307197</v>
       </c>
       <c r="D66">
-        <v>-0.04714032649948943</v>
+        <v>-0.05106228041298853</v>
       </c>
       <c r="E66">
-        <v>0.02501310314892152</v>
+        <v>-0.005927492802686197</v>
       </c>
       <c r="F66">
-        <v>-0.02873185144988894</v>
+        <v>-0.01391440323757789</v>
       </c>
       <c r="G66">
-        <v>-0.09160728277979609</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.008512024690732728</v>
+      </c>
+      <c r="H66">
+        <v>0.03450889758569418</v>
+      </c>
+      <c r="I66">
+        <v>0.06618017998314868</v>
+      </c>
+      <c r="J66">
+        <v>-0.004598798460807147</v>
+      </c>
+      <c r="K66">
+        <v>0.06600692711416101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03428853229413531</v>
+        <v>0.02004546726396522</v>
       </c>
       <c r="C67">
-        <v>-0.02705065507544795</v>
+        <v>-0.0502128632384408</v>
       </c>
       <c r="D67">
-        <v>-0.05656037087558382</v>
+        <v>-0.03844299798426553</v>
       </c>
       <c r="E67">
-        <v>-0.0475516166968495</v>
+        <v>-0.02998390091149877</v>
       </c>
       <c r="F67">
-        <v>-0.02254210741167047</v>
+        <v>0.002790933920426355</v>
       </c>
       <c r="G67">
-        <v>-0.05323453665151661</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03305538879665969</v>
+      </c>
+      <c r="H67">
+        <v>0.03939750854575271</v>
+      </c>
+      <c r="I67">
+        <v>0.01356960211265183</v>
+      </c>
+      <c r="J67">
+        <v>-0.0563196483949037</v>
+      </c>
+      <c r="K67">
+        <v>-0.05195950200920399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.295016297180978</v>
+        <v>0.2926899198484878</v>
       </c>
       <c r="C68">
-        <v>0.02588502408189957</v>
+        <v>0.07778696916075277</v>
       </c>
       <c r="D68">
-        <v>0.002160867752567243</v>
+        <v>0.02671601967767726</v>
       </c>
       <c r="E68">
-        <v>0.02681701991428017</v>
+        <v>0.01200082812935921</v>
       </c>
       <c r="F68">
-        <v>0.002144402382628239</v>
+        <v>0.02273618767336453</v>
       </c>
       <c r="G68">
-        <v>-0.01063747268200555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03978391088877582</v>
+      </c>
+      <c r="H68">
+        <v>-0.02460565756766754</v>
+      </c>
+      <c r="I68">
+        <v>0.02448691502268305</v>
+      </c>
+      <c r="J68">
+        <v>-0.02518072627865713</v>
+      </c>
+      <c r="K68">
+        <v>-0.04347519364440244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.009533606048793501</v>
+        <v>0.01036234327553177</v>
       </c>
       <c r="C69">
-        <v>-0.05548260261838733</v>
+        <v>-0.04706637219081215</v>
       </c>
       <c r="D69">
-        <v>-0.05567381022057789</v>
+        <v>-0.02532275672700032</v>
       </c>
       <c r="E69">
-        <v>-0.03187648593510043</v>
+        <v>-0.003495169006898894</v>
       </c>
       <c r="F69">
-        <v>-0.006377002715433844</v>
+        <v>-0.01592443746027893</v>
       </c>
       <c r="G69">
-        <v>-0.02048542335856539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.008483484141035195</v>
+      </c>
+      <c r="H69">
+        <v>0.0167550746516183</v>
+      </c>
+      <c r="I69">
+        <v>0.006457954000193388</v>
+      </c>
+      <c r="J69">
+        <v>-0.03640510451294886</v>
+      </c>
+      <c r="K69">
+        <v>-0.02722954685138165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2864240389975979</v>
+        <v>0.2744753081147319</v>
       </c>
       <c r="C71">
-        <v>0.04346591676077521</v>
+        <v>0.08036221005612434</v>
       </c>
       <c r="D71">
-        <v>0.01415185862232982</v>
+        <v>0.02193789778673706</v>
       </c>
       <c r="E71">
-        <v>0.02533978000802134</v>
+        <v>-0.02464944386093869</v>
       </c>
       <c r="F71">
-        <v>0.01919794384094466</v>
+        <v>0.04016528947033982</v>
       </c>
       <c r="G71">
-        <v>-0.002250169731075045</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0457104409190987</v>
+      </c>
+      <c r="H71">
+        <v>-0.0221277650098376</v>
+      </c>
+      <c r="I71">
+        <v>0.03052349942025927</v>
+      </c>
+      <c r="J71">
+        <v>-0.05377437501745316</v>
+      </c>
+      <c r="K71">
+        <v>-0.1106319938732196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01203003660115683</v>
+        <v>0.05374454454907775</v>
       </c>
       <c r="C72">
-        <v>-0.1498497263970204</v>
+        <v>-0.1377085823447311</v>
       </c>
       <c r="D72">
-        <v>-0.07084643510708992</v>
+        <v>-0.05001058526925713</v>
       </c>
       <c r="E72">
-        <v>-0.0204300679255876</v>
+        <v>0.06369062601210503</v>
       </c>
       <c r="F72">
-        <v>0.03950205029770797</v>
+        <v>-0.004409694972022347</v>
       </c>
       <c r="G72">
-        <v>-0.09625122362640542</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01760403808681605</v>
+      </c>
+      <c r="H72">
+        <v>-0.007453050372399892</v>
+      </c>
+      <c r="I72">
+        <v>0.04532859196696098</v>
+      </c>
+      <c r="J72">
+        <v>-0.02632788948171119</v>
+      </c>
+      <c r="K72">
+        <v>0.09716662096583591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07852290691428998</v>
+        <v>0.156953386499638</v>
       </c>
       <c r="C73">
-        <v>-0.1170943763836796</v>
+        <v>-0.1973232211773746</v>
       </c>
       <c r="D73">
-        <v>-0.1349855405746055</v>
+        <v>-0.08385422124498192</v>
       </c>
       <c r="E73">
-        <v>-0.1966836023914033</v>
+        <v>0.1129999417163887</v>
       </c>
       <c r="F73">
-        <v>-0.2100829599841821</v>
+        <v>-0.09921452729659791</v>
       </c>
       <c r="G73">
-        <v>-0.3429667503742135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1935234544618002</v>
+      </c>
+      <c r="H73">
+        <v>0.360862177970014</v>
+      </c>
+      <c r="I73">
+        <v>-0.2906674296081573</v>
+      </c>
+      <c r="J73">
+        <v>0.1180761189884592</v>
+      </c>
+      <c r="K73">
+        <v>-0.1338281305326364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.015833295848791</v>
+        <v>0.03843581051441366</v>
       </c>
       <c r="C74">
-        <v>-0.08162950143272259</v>
+        <v>-0.0977724527761298</v>
       </c>
       <c r="D74">
-        <v>-0.07035789817926646</v>
+        <v>-0.04427665150550904</v>
       </c>
       <c r="E74">
-        <v>-0.06569250210645881</v>
+        <v>0.03405993773983623</v>
       </c>
       <c r="F74">
-        <v>-0.04121680923051563</v>
+        <v>0.00467960468987381</v>
       </c>
       <c r="G74">
-        <v>0.05933214029332239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02572053448810213</v>
+      </c>
+      <c r="H74">
+        <v>-0.05495181102488518</v>
+      </c>
+      <c r="I74">
+        <v>-0.00285608431974112</v>
+      </c>
+      <c r="J74">
+        <v>-0.02916948739133987</v>
+      </c>
+      <c r="K74">
+        <v>0.01448209952321212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03659357858656712</v>
+        <v>0.06457755913781547</v>
       </c>
       <c r="C75">
-        <v>-0.1447954096051156</v>
+        <v>-0.1634499975648436</v>
       </c>
       <c r="D75">
-        <v>-0.06980185713461862</v>
+        <v>-0.08250149694278863</v>
       </c>
       <c r="E75">
-        <v>-0.1385612239518966</v>
+        <v>0.0508643881712206</v>
       </c>
       <c r="F75">
-        <v>-0.001461528903460651</v>
+        <v>-0.01124652944298283</v>
       </c>
       <c r="G75">
-        <v>0.188918997151291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1000520054878243</v>
+      </c>
+      <c r="H75">
+        <v>-0.2142067235501984</v>
+      </c>
+      <c r="I75">
+        <v>0.03521190236352329</v>
+      </c>
+      <c r="J75">
+        <v>0.03522983288893372</v>
+      </c>
+      <c r="K75">
+        <v>-0.1330263973318205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.0144856314863507</v>
+        <v>0.04574781594236393</v>
       </c>
       <c r="C76">
-        <v>-0.106646067016039</v>
+        <v>-0.1260163773481184</v>
       </c>
       <c r="D76">
-        <v>-0.06293272906919721</v>
+        <v>-0.07434212014798859</v>
       </c>
       <c r="E76">
-        <v>-0.0834574831172238</v>
+        <v>0.03015020556576098</v>
       </c>
       <c r="F76">
-        <v>-0.04653349330612506</v>
+        <v>-0.04835687301302151</v>
       </c>
       <c r="G76">
-        <v>0.07400034183125527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06464490301705218</v>
+      </c>
+      <c r="H76">
+        <v>-0.07984314976688306</v>
+      </c>
+      <c r="I76">
+        <v>0.01062008480008874</v>
+      </c>
+      <c r="J76">
+        <v>0.03968300097661144</v>
+      </c>
+      <c r="K76">
+        <v>0.02340696659056659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09015218979475674</v>
+        <v>0.05454790721373984</v>
       </c>
       <c r="C77">
-        <v>-0.35278883664315</v>
+        <v>-0.3998484906310189</v>
       </c>
       <c r="D77">
-        <v>0.840020626312077</v>
+        <v>0.899809444864928</v>
       </c>
       <c r="E77">
-        <v>-0.2971657744479782</v>
+        <v>0.01060404261181381</v>
       </c>
       <c r="F77">
-        <v>-0.1259542224509535</v>
+        <v>-0.006841408369492179</v>
       </c>
       <c r="G77">
-        <v>-0.009827534330608531</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.07290982666043422</v>
+      </c>
+      <c r="H77">
+        <v>-0.03066837062725326</v>
+      </c>
+      <c r="I77">
+        <v>0.08343311001481173</v>
+      </c>
+      <c r="J77">
+        <v>0.009367413941193914</v>
+      </c>
+      <c r="K77">
+        <v>-0.02166361699479253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03035321087939775</v>
+        <v>0.03866002399336856</v>
       </c>
       <c r="C78">
-        <v>-0.1259897908215993</v>
+        <v>-0.1141343955987766</v>
       </c>
       <c r="D78">
-        <v>-0.1690403273272407</v>
+        <v>-0.09313906061300581</v>
       </c>
       <c r="E78">
-        <v>0.0887115656473195</v>
+        <v>-0.02406125385706996</v>
       </c>
       <c r="F78">
-        <v>-0.1151430670472098</v>
+        <v>-0.0488038066855497</v>
       </c>
       <c r="G78">
-        <v>0.1145242389130013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01374663340093585</v>
+      </c>
+      <c r="H78">
+        <v>-0.1095590329709049</v>
+      </c>
+      <c r="I78">
+        <v>0.01553562059396953</v>
+      </c>
+      <c r="J78">
+        <v>-0.07149185078288084</v>
+      </c>
+      <c r="K78">
+        <v>0.08374478986300557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02687073020340503</v>
+        <v>0.05801503245304183</v>
       </c>
       <c r="C79">
-        <v>-0.1606237104599834</v>
+        <v>-0.1411069334298309</v>
       </c>
       <c r="D79">
-        <v>-0.1067109142079603</v>
+        <v>-0.06734922129712775</v>
       </c>
       <c r="E79">
-        <v>-0.09430153311756609</v>
+        <v>0.03781357829043294</v>
       </c>
       <c r="F79">
-        <v>-0.05471674499562355</v>
+        <v>-0.04612258534797992</v>
       </c>
       <c r="G79">
-        <v>0.3006477339774903</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03581879762133742</v>
+      </c>
+      <c r="H79">
+        <v>-0.2680310588076892</v>
+      </c>
+      <c r="I79">
+        <v>0.01785202837311388</v>
+      </c>
+      <c r="J79">
+        <v>-0.0412676872798001</v>
+      </c>
+      <c r="K79">
+        <v>-0.05896780052773514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.001124696756316619</v>
+        <v>0.01953788851956226</v>
       </c>
       <c r="C80">
-        <v>-0.05773082984009795</v>
+        <v>-0.04518249808935844</v>
       </c>
       <c r="D80">
-        <v>-0.04026832331082206</v>
+        <v>-0.03615439932064144</v>
       </c>
       <c r="E80">
-        <v>0.05059986688790181</v>
+        <v>-0.02217237299933538</v>
       </c>
       <c r="F80">
-        <v>-0.003443286733832444</v>
+        <v>-0.03407402434678748</v>
       </c>
       <c r="G80">
-        <v>-0.01015779790409862</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0536685485176547</v>
+      </c>
+      <c r="H80">
+        <v>0.07952419142186301</v>
+      </c>
+      <c r="I80">
+        <v>-0.03606385415828106</v>
+      </c>
+      <c r="J80">
+        <v>0.01144649336174268</v>
+      </c>
+      <c r="K80">
+        <v>-0.01979219024448712</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.004177279571862818</v>
+        <v>0.01668972575628842</v>
       </c>
       <c r="C81">
-        <v>-0.07992035976351898</v>
+        <v>-0.09627482594495745</v>
       </c>
       <c r="D81">
-        <v>-0.06886418685293406</v>
+        <v>-0.05632703510895505</v>
       </c>
       <c r="E81">
-        <v>-0.07666731433927695</v>
+        <v>0.0256651480645059</v>
       </c>
       <c r="F81">
-        <v>-0.0423784595448371</v>
+        <v>-0.03063245903274081</v>
       </c>
       <c r="G81">
-        <v>0.1022523816091978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02342627862865489</v>
+      </c>
+      <c r="H81">
+        <v>-0.1132524576198528</v>
+      </c>
+      <c r="I81">
+        <v>0.03374603682446965</v>
+      </c>
+      <c r="J81">
+        <v>-0.04888009550460988</v>
+      </c>
+      <c r="K81">
+        <v>-0.03971367864126032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0199005608511354</v>
+        <v>0.04720751533788693</v>
       </c>
       <c r="C82">
-        <v>-0.07768668869764878</v>
+        <v>-0.1069083810718703</v>
       </c>
       <c r="D82">
-        <v>-0.07073921390236144</v>
+        <v>-0.0640362479744539</v>
       </c>
       <c r="E82">
-        <v>-0.09182959441933126</v>
+        <v>0.02280507573426397</v>
       </c>
       <c r="F82">
-        <v>-0.04980091002296995</v>
+        <v>-0.05668992401330906</v>
       </c>
       <c r="G82">
-        <v>0.05221899078649146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05414116366024746</v>
+      </c>
+      <c r="H82">
+        <v>-0.07982030637248846</v>
+      </c>
+      <c r="I82">
+        <v>0.02406439960730824</v>
+      </c>
+      <c r="J82">
+        <v>0.02121282037274712</v>
+      </c>
+      <c r="K82">
+        <v>-0.01129586718170303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.003307502168698922</v>
+        <v>-0.0003900964648555169</v>
       </c>
       <c r="C83">
-        <v>-0.007246925915449363</v>
+        <v>0.02180888793126104</v>
       </c>
       <c r="D83">
-        <v>0.1222060844264538</v>
+        <v>0.05579302641571756</v>
       </c>
       <c r="E83">
-        <v>0.5656549527572968</v>
+        <v>0.153637171716109</v>
       </c>
       <c r="F83">
-        <v>-0.7109239953289889</v>
+        <v>-0.7393006938276867</v>
       </c>
       <c r="G83">
-        <v>0.165092426988525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.5948928970792339</v>
+      </c>
+      <c r="H83">
+        <v>0.0003707260719646687</v>
+      </c>
+      <c r="I83">
+        <v>-0.006229012761022132</v>
+      </c>
+      <c r="J83">
+        <v>0.1200304741555237</v>
+      </c>
+      <c r="K83">
+        <v>0.04980735475922178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.003994632327320823</v>
+        <v>0.01430812846400962</v>
       </c>
       <c r="C84">
-        <v>-0.09526229708096054</v>
+        <v>-0.0629092291296456</v>
       </c>
       <c r="D84">
-        <v>-0.02656717714297293</v>
+        <v>-0.08652136098545182</v>
       </c>
       <c r="E84">
-        <v>0.07486264072570896</v>
+        <v>-0.3613834963976287</v>
       </c>
       <c r="F84">
-        <v>0.1599319590718686</v>
+        <v>0.003128108293109869</v>
       </c>
       <c r="G84">
-        <v>-0.00433332532146403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.01141681535560323</v>
+      </c>
+      <c r="H84">
+        <v>0.1378400906337858</v>
+      </c>
+      <c r="I84">
+        <v>0.5395237896633461</v>
+      </c>
+      <c r="J84">
+        <v>0.6660704720301833</v>
+      </c>
+      <c r="K84">
+        <v>-0.1585712170407239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003438682972027798</v>
+        <v>0.03121081358829119</v>
       </c>
       <c r="C85">
-        <v>-0.1055861965248598</v>
+        <v>-0.1146930851365767</v>
       </c>
       <c r="D85">
-        <v>-0.07074494486417808</v>
+        <v>-0.08005164434186407</v>
       </c>
       <c r="E85">
-        <v>-0.08373891302422036</v>
+        <v>0.05223226579441542</v>
       </c>
       <c r="F85">
-        <v>-0.04739856483872524</v>
+        <v>-0.07305227989304341</v>
       </c>
       <c r="G85">
-        <v>0.2129915214913095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.09234385765621715</v>
+      </c>
+      <c r="H85">
+        <v>-0.2307948393271431</v>
+      </c>
+      <c r="I85">
+        <v>0.01601931048903118</v>
+      </c>
+      <c r="J85">
+        <v>0.0455160881369999</v>
+      </c>
+      <c r="K85">
+        <v>-0.07610949369036825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01877322985214004</v>
+        <v>0.01458842266365545</v>
       </c>
       <c r="C86">
-        <v>-0.07930569922113036</v>
+        <v>-0.0777103695524398</v>
       </c>
       <c r="D86">
-        <v>0.01088537637464653</v>
+        <v>-0.03023081444827797</v>
       </c>
       <c r="E86">
-        <v>0.01279555730492703</v>
+        <v>-0.06942260308174837</v>
       </c>
       <c r="F86">
-        <v>0.01693417531658372</v>
+        <v>0.01037337331748692</v>
       </c>
       <c r="G86">
-        <v>-0.09153553357607898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06355492660654721</v>
+      </c>
+      <c r="H86">
+        <v>-0.04770998246328657</v>
+      </c>
+      <c r="I86">
+        <v>-0.072583257949903</v>
+      </c>
+      <c r="J86">
+        <v>-0.09851565725653023</v>
+      </c>
+      <c r="K86">
+        <v>-0.1301177008103728</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02250837648268924</v>
+        <v>0.02628435610526593</v>
       </c>
       <c r="C87">
-        <v>-0.1621151183801786</v>
+        <v>-0.117426969687345</v>
       </c>
       <c r="D87">
-        <v>-0.02672973054780902</v>
+        <v>-0.01979787825993083</v>
       </c>
       <c r="E87">
-        <v>0.09189109380344856</v>
+        <v>0.02580907590087807</v>
       </c>
       <c r="F87">
-        <v>0.06723590321661814</v>
+        <v>0.03976723377392483</v>
       </c>
       <c r="G87">
-        <v>0.008310216229069821</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04782496375077729</v>
+      </c>
+      <c r="H87">
+        <v>-0.01179556080500511</v>
+      </c>
+      <c r="I87">
+        <v>0.05350312814903126</v>
+      </c>
+      <c r="J87">
+        <v>0.001885221358817491</v>
+      </c>
+      <c r="K87">
+        <v>0.1010794626224115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01193172990174573</v>
+        <v>0.03892830773089111</v>
       </c>
       <c r="C88">
-        <v>-0.03361749552238552</v>
+        <v>-0.05916351302452509</v>
       </c>
       <c r="D88">
-        <v>-0.03989520816512597</v>
+        <v>-0.03806792195187998</v>
       </c>
       <c r="E88">
-        <v>-0.05410850096744295</v>
+        <v>0.02195062454228884</v>
       </c>
       <c r="F88">
-        <v>-0.01556013777196346</v>
+        <v>0.002642038118154726</v>
       </c>
       <c r="G88">
-        <v>-0.009147073991268632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01978124873734721</v>
+      </c>
+      <c r="H88">
+        <v>0.009276014825204217</v>
+      </c>
+      <c r="I88">
+        <v>-0.0114267456060192</v>
+      </c>
+      <c r="J88">
+        <v>-0.0170341513206453</v>
+      </c>
+      <c r="K88">
+        <v>0.01576868314124649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4070782904762374</v>
+        <v>0.3902256282746053</v>
       </c>
       <c r="C89">
-        <v>0.08149046269210962</v>
+        <v>0.1231974488483329</v>
       </c>
       <c r="D89">
-        <v>-0.06941361167043578</v>
+        <v>0.0389625081008546</v>
       </c>
       <c r="E89">
-        <v>0.05735663789152817</v>
+        <v>-0.01172583644603762</v>
       </c>
       <c r="F89">
-        <v>0.07665230940909362</v>
+        <v>0.0587513615936829</v>
       </c>
       <c r="G89">
-        <v>0.06298032441696341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01420458222162281</v>
+      </c>
+      <c r="H89">
+        <v>0.03166139421692927</v>
+      </c>
+      <c r="I89">
+        <v>0.04775589338245657</v>
+      </c>
+      <c r="J89">
+        <v>0.06139587632160765</v>
+      </c>
+      <c r="K89">
+        <v>0.7400270858004478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3090639107538648</v>
+        <v>0.3163779157029823</v>
       </c>
       <c r="C90">
-        <v>0.01810423677806769</v>
+        <v>0.07943523727705565</v>
       </c>
       <c r="D90">
-        <v>-0.006500778764275734</v>
+        <v>0.01942549017137133</v>
       </c>
       <c r="E90">
-        <v>0.05458302659155588</v>
+        <v>-0.0134362639548499</v>
       </c>
       <c r="F90">
-        <v>-0.04248136313502432</v>
+        <v>0.007748305260356863</v>
       </c>
       <c r="G90">
-        <v>-0.02448918477747148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02884118844833524</v>
+      </c>
+      <c r="H90">
+        <v>-0.0002590840073556962</v>
+      </c>
+      <c r="I90">
+        <v>0.01202665390236976</v>
+      </c>
+      <c r="J90">
+        <v>0.005801730024761288</v>
+      </c>
+      <c r="K90">
+        <v>-0.1039792183569704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.0221572179629084</v>
+        <v>0.05624352917818668</v>
       </c>
       <c r="C91">
-        <v>-0.07744722092899677</v>
+        <v>-0.07815387159563711</v>
       </c>
       <c r="D91">
-        <v>-0.0567108207534953</v>
+        <v>-0.05225183352070617</v>
       </c>
       <c r="E91">
-        <v>-0.04562664348944678</v>
+        <v>0.04671685556517726</v>
       </c>
       <c r="F91">
-        <v>-0.04680791899886565</v>
+        <v>-0.05061079665023701</v>
       </c>
       <c r="G91">
-        <v>0.09004343931945102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.007936503213710186</v>
+      </c>
+      <c r="H91">
+        <v>-0.08770784099249056</v>
+      </c>
+      <c r="I91">
+        <v>-0.009394894569532651</v>
+      </c>
+      <c r="J91">
+        <v>0.02601901968010128</v>
+      </c>
+      <c r="K91">
+        <v>-0.007237242641614151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3774200003094029</v>
+        <v>0.3504374782165869</v>
       </c>
       <c r="C92">
-        <v>0.06638138796444429</v>
+        <v>0.1252074027728101</v>
       </c>
       <c r="D92">
-        <v>0.02231862790749095</v>
+        <v>0.05512524349461594</v>
       </c>
       <c r="E92">
-        <v>-0.01140782980245595</v>
+        <v>-0.01207785394753874</v>
       </c>
       <c r="F92">
-        <v>0.1215481577794951</v>
+        <v>0.06237897080676995</v>
       </c>
       <c r="G92">
-        <v>-0.001123251778344337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01834998619543187</v>
+      </c>
+      <c r="H92">
+        <v>-0.007912705188948306</v>
+      </c>
+      <c r="I92">
+        <v>0.04351213812214185</v>
+      </c>
+      <c r="J92">
+        <v>-0.05981318440885793</v>
+      </c>
+      <c r="K92">
+        <v>-0.1382984721242364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3050226279631292</v>
+        <v>0.3076867058848153</v>
       </c>
       <c r="C93">
-        <v>0.07824310451003549</v>
+        <v>0.1237411650592786</v>
       </c>
       <c r="D93">
-        <v>-0.006251857589245087</v>
+        <v>0.006910169877248496</v>
       </c>
       <c r="E93">
-        <v>0.07880036718103697</v>
+        <v>-0.03859290984725514</v>
       </c>
       <c r="F93">
-        <v>0.04640195246230388</v>
+        <v>0.0180632932835761</v>
       </c>
       <c r="G93">
-        <v>-0.004445136226196369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03477916734179393</v>
+      </c>
+      <c r="H93">
+        <v>-0.03974349681999564</v>
+      </c>
+      <c r="I93">
+        <v>0.01320145923911369</v>
+      </c>
+      <c r="J93">
+        <v>-0.02969996107599222</v>
+      </c>
+      <c r="K93">
+        <v>-0.1221467055927825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03178386507576185</v>
+        <v>0.08307277006028993</v>
       </c>
       <c r="C94">
-        <v>-0.1944999774979366</v>
+        <v>-0.1650531408934258</v>
       </c>
       <c r="D94">
-        <v>-0.1261453972100408</v>
+        <v>-0.1119191730947627</v>
       </c>
       <c r="E94">
-        <v>-0.1442780711088966</v>
+        <v>0.06542009391129128</v>
       </c>
       <c r="F94">
-        <v>0.04147158694908232</v>
+        <v>-0.08099708127814198</v>
       </c>
       <c r="G94">
-        <v>0.5883462782187017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.088700900223028</v>
+      </c>
+      <c r="H94">
+        <v>-0.5361527147245901</v>
+      </c>
+      <c r="I94">
+        <v>-0.09380661796785054</v>
+      </c>
+      <c r="J94">
+        <v>0.2125502195166083</v>
+      </c>
+      <c r="K94">
+        <v>0.05459494187743993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02210499780692007</v>
+        <v>0.04375783991766271</v>
       </c>
       <c r="C95">
-        <v>-0.1216422685107704</v>
+        <v>-0.131500289296353</v>
       </c>
       <c r="D95">
-        <v>-0.05407242989032778</v>
+        <v>-0.06368963526987614</v>
       </c>
       <c r="E95">
-        <v>-0.06843113491552787</v>
+        <v>0.01149220415498494</v>
       </c>
       <c r="F95">
-        <v>-0.1025083048099541</v>
+        <v>-0.02049489282304012</v>
       </c>
       <c r="G95">
-        <v>-0.0205461212270174</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.08669799643747518</v>
+      </c>
+      <c r="H95">
+        <v>0.04467189887423765</v>
+      </c>
+      <c r="I95">
+        <v>0.08994751466613234</v>
+      </c>
+      <c r="J95">
+        <v>0.06186363338908894</v>
+      </c>
+      <c r="K95">
+        <v>0.1713590810141135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.00231526888482836</v>
+        <v>0.02127904432629212</v>
       </c>
       <c r="C97">
-        <v>-0.001003844416325497</v>
+        <v>-0.02623310876963491</v>
       </c>
       <c r="D97">
-        <v>-0.0001674747957964759</v>
+        <v>0.007797468886036931</v>
       </c>
       <c r="E97">
-        <v>-0.00362800807894642</v>
+        <v>-0.05736732006027266</v>
       </c>
       <c r="F97">
-        <v>0.003275255818269537</v>
+        <v>-0.008244891790744635</v>
       </c>
       <c r="G97">
-        <v>-0.006572456247985943</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03292917072880013</v>
+      </c>
+      <c r="H97">
+        <v>0.02944234079705004</v>
+      </c>
+      <c r="I97">
+        <v>-0.03398330554779128</v>
+      </c>
+      <c r="J97">
+        <v>-0.04220765996798431</v>
+      </c>
+      <c r="K97">
+        <v>0.04532699388236677</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09279731867892606</v>
+        <v>0.1392942151255149</v>
       </c>
       <c r="C98">
-        <v>-0.1537708726047654</v>
+        <v>-0.1623106792077952</v>
       </c>
       <c r="D98">
-        <v>-0.1521701700646924</v>
+        <v>-0.08938516872803341</v>
       </c>
       <c r="E98">
-        <v>-0.1230384446554087</v>
+        <v>0.1402186893090026</v>
       </c>
       <c r="F98">
-        <v>-0.1368742116637055</v>
+        <v>-0.103509640140334</v>
       </c>
       <c r="G98">
-        <v>-0.205731267484677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1591324708221659</v>
+      </c>
+      <c r="H98">
+        <v>0.2910808242151071</v>
+      </c>
+      <c r="I98">
+        <v>-0.2734344444143381</v>
+      </c>
+      <c r="J98">
+        <v>0.1580645070660749</v>
+      </c>
+      <c r="K98">
+        <v>-0.1335279623089927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02823523269568711</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0672716560282146</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.003181535424564387</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.8139072991017182</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.3498661665667483</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.1939365755713396</v>
+      </c>
+      <c r="H99">
+        <v>-0.01135568096779264</v>
+      </c>
+      <c r="I99">
+        <v>-0.2765975041578158</v>
+      </c>
+      <c r="J99">
+        <v>-0.1755118711142957</v>
+      </c>
+      <c r="K99">
+        <v>0.08124347445929063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007992006922317697</v>
+        <v>0.01756214578652113</v>
       </c>
       <c r="C101">
-        <v>-0.08288817857919231</v>
+        <v>-0.08081839012555858</v>
       </c>
       <c r="D101">
-        <v>-0.04882575145977668</v>
+        <v>-0.04823579497590104</v>
       </c>
       <c r="E101">
-        <v>0.007068114617555396</v>
+        <v>0.02248145177290249</v>
       </c>
       <c r="F101">
-        <v>-0.03999125384460132</v>
+        <v>-0.02931599204961031</v>
       </c>
       <c r="G101">
-        <v>-0.09272484142574672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02638304233589292</v>
+      </c>
+      <c r="H101">
+        <v>0.1500393257925112</v>
+      </c>
+      <c r="I101">
+        <v>0.2115103010144119</v>
+      </c>
+      <c r="J101">
+        <v>-0.1631212965525573</v>
+      </c>
+      <c r="K101">
+        <v>0.02249714424985621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004657519384025415</v>
+        <v>0.002141193163163716</v>
       </c>
       <c r="C102">
-        <v>-0.01387373821306074</v>
+        <v>-0.005574345373936237</v>
       </c>
       <c r="D102">
-        <v>0.003541418591768607</v>
+        <v>0.003016280853249096</v>
       </c>
       <c r="E102">
-        <v>-0.01822591266250127</v>
+        <v>0.003248065245090249</v>
       </c>
       <c r="F102">
-        <v>-0.01411884250703245</v>
+        <v>-0.001766369271368023</v>
       </c>
       <c r="G102">
-        <v>0.01180132861985747</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.002148744015843123</v>
+      </c>
+      <c r="H102">
+        <v>-0.003522759415620035</v>
+      </c>
+      <c r="I102">
+        <v>0.004439052219719772</v>
+      </c>
+      <c r="J102">
+        <v>-0.006036896269328951</v>
+      </c>
+      <c r="K102">
+        <v>0.01512247670929373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
